--- a/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_ratio_rcm.xlsx
+++ b/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_ratio_rcm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\results_cnn_subnetwork_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PCC_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE5A43A-87E7-46FB-82C7-01B81763E67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBB5C90-BF91-4E60-95B6-5B1E0BBAB967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="21" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="17" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exponential_sr_0.2" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,20 @@
     <sheet name="generalized_gaussian_sr_0.3" sheetId="48" r:id="rId48"/>
     <sheet name="sigmoid_sr_0.3" sheetId="49" r:id="rId49"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -249,7 +262,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1126,7 +1139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2851,7 +2866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -3426,7 +3443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -4576,7 +4595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -5151,7 +5172,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -7451,7 +7474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -8026,7 +8051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -9751,7 +9778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -11476,7 +11505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -12051,7 +12082,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -13201,7 +13234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -14351,7 +14386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -16076,7 +16113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -16651,7 +16690,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -18376,7 +18417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -20676,7 +20719,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -21251,7 +21296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -22976,7 +23023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -24701,7 +24750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -25276,7 +25327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -26426,7 +26479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -27001,7 +27056,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B2:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
